--- a/thongKe/ThongKeNguong.xlsx
+++ b/thongKe/ThongKeNguong.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Class\ky2_2122\XL tín hiệu số\Handle speech signal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Class\ky2_2122\XL tín hiệu số\Handle speech signal\thongKe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5291539-98D8-48B0-B778-61B2969D7C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C493F7-3BA7-44F7-A81C-8F5BC0899783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{4B47E6B4-FF19-4334-8229-3A9AFBCD530A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="30">
   <si>
     <t>Studio_female</t>
   </si>
@@ -119,10 +119,10 @@
     <t>Phone female</t>
   </si>
   <si>
-    <t>meanV - stdV</t>
+    <t>Phone male</t>
   </si>
   <si>
-    <t>Phone male</t>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF5C30D-5A8E-4793-A983-56FBF19A73A6}">
   <dimension ref="A1:S143"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K7" sqref="K7:L7"/>
     </sheetView>
   </sheetViews>
@@ -4570,8 +4570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF1C9F2-E668-4C8F-9AA3-088A854E6FE4}">
   <dimension ref="A1:R152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4620,7 +4620,7 @@
       </c>
       <c r="L2" s="7"/>
       <c r="O2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P2" s="7"/>
     </row>
@@ -4872,7 +4872,7 @@
         <v>0.4700135291652216</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P8" s="6"/>
       <c r="Q8">
@@ -4911,6 +4911,9 @@
         <f xml:space="preserve"> AVERAGE(M7,M8)</f>
         <v>0.32864831628407509</v>
       </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
       <c r="Q9">
         <f xml:space="preserve"> AVERAGE(Q7:Q8)</f>
         <v>0.3417117305824513</v>
@@ -8304,16 +8307,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="G143:I143"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="G143:I143"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thongKe/ThongKeNguong.xlsx
+++ b/thongKe/ThongKeNguong.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Class\ky2_2122\XL tín hiệu số\Handle speech signal\thongKe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C493F7-3BA7-44F7-A81C-8F5BC0899783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59EA35A-B1B6-4208-A740-30B37A6BEC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{4B47E6B4-FF19-4334-8229-3A9AFBCD530A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="36">
   <si>
     <t>Studio_female</t>
   </si>
@@ -124,6 +124,24 @@
   <si>
     <t xml:space="preserve">    </t>
   </si>
+  <si>
+    <t xml:space="preserve">meanU </t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>Phone_F1</t>
+  </si>
+  <si>
+    <t>Phone_M1</t>
+  </si>
+  <si>
+    <t>Studio_F1</t>
+  </si>
+  <si>
+    <t>Studio_M1</t>
+  </si>
 </sst>
 </file>
 
@@ -138,17 +156,47 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -158,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -178,6 +226,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF5C30D-5A8E-4793-A983-56FBF19A73A6}">
   <dimension ref="A1:S143"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7:L7"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4568,13 +4632,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF1C9F2-E668-4C8F-9AA3-088A854E6FE4}">
-  <dimension ref="A1:R152"/>
+  <dimension ref="A1:U152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
@@ -5115,7 +5182,7 @@
         <v>0.53246753246753253</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.4800000000000001E-2</v>
       </c>
@@ -5143,7 +5210,7 @@
         <v>0.48947368421052628</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.6899999999999998E-2</v>
       </c>
@@ -5170,8 +5237,20 @@
         <f t="shared" si="1"/>
         <v>0.53012048192771088</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8700000000000001E-2</v>
       </c>
@@ -5198,8 +5277,34 @@
         <f t="shared" si="1"/>
         <v>9.5480074886333255E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="6"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="U19" s="13"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2.01E-2</v>
       </c>
@@ -5226,8 +5331,20 @@
         <f t="shared" si="1"/>
         <v>9.2197204968944096E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="6"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="13"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.27129999999999999</v>
       </c>
@@ -5254,8 +5371,43 @@
         <f t="shared" si="1"/>
         <v>8.3178360101437018E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="6"/>
+      <c r="K21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="11">
+        <f xml:space="preserve"> L3</f>
+        <v>0.17565628290405769</v>
+      </c>
+      <c r="M21" s="11">
+        <f xml:space="preserve"> N3</f>
+        <v>1.1626820498870847E-2</v>
+      </c>
+      <c r="N21" s="11">
+        <f xml:space="preserve"> L4</f>
+        <v>0.47793792664490953</v>
+      </c>
+      <c r="O21" s="11">
+        <f xml:space="preserve"> N4</f>
+        <v>7.9243974796879262E-3</v>
+      </c>
+      <c r="P21" s="12">
+        <f xml:space="preserve"> M7</f>
+        <v>0.18728310340292853</v>
+      </c>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12">
+        <f xml:space="preserve"> M8</f>
+        <v>0.4700135291652216</v>
+      </c>
+      <c r="S21" s="12"/>
+      <c r="T21" s="11">
+        <f xml:space="preserve"> M9</f>
+        <v>0.32864831628407509</v>
+      </c>
+      <c r="U21" s="13"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.47220000000000001</v>
       </c>
@@ -5282,8 +5434,43 @@
         <f t="shared" si="1"/>
         <v>0.16906196878380467</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="6"/>
+      <c r="K22" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="11">
+        <f xml:space="preserve"> P3</f>
+        <v>0.21832534321663735</v>
+      </c>
+      <c r="M22" s="11">
+        <f xml:space="preserve"> R3</f>
+        <v>1.0637062335994625E-2</v>
+      </c>
+      <c r="N22" s="11">
+        <f xml:space="preserve"> P4</f>
+        <v>0.45950965136094474</v>
+      </c>
+      <c r="O22" s="11">
+        <f xml:space="preserve"> R4</f>
+        <v>5.0485957486741265E-3</v>
+      </c>
+      <c r="P22" s="12">
+        <f xml:space="preserve"> Q7</f>
+        <v>0.22896240555263198</v>
+      </c>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12">
+        <f xml:space="preserve"> Q8</f>
+        <v>0.45446105561227063</v>
+      </c>
+      <c r="S22" s="12"/>
+      <c r="T22" s="11">
+        <f xml:space="preserve"> Q9</f>
+        <v>0.3417117305824513</v>
+      </c>
+      <c r="U22" s="13"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.50629999999999997</v>
       </c>
@@ -5310,8 +5497,36 @@
         <f t="shared" si="1"/>
         <v>0.11691348402182385</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="6"/>
+      <c r="K23" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0.18740999999999999</v>
+      </c>
+      <c r="M23" s="11">
+        <v>1.5365E-2</v>
+      </c>
+      <c r="N23" s="11">
+        <v>0.44187100000000001</v>
+      </c>
+      <c r="O23" s="11">
+        <v>1.5249E-2</v>
+      </c>
+      <c r="P23" s="12">
+        <v>0.20277500000000001</v>
+      </c>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12">
+        <v>0.426622</v>
+      </c>
+      <c r="S23" s="12"/>
+      <c r="T23" s="11">
+        <v>0.31469799999999998</v>
+      </c>
+      <c r="U23" s="13"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.81679999999999997</v>
       </c>
@@ -5338,8 +5553,36 @@
         <f t="shared" si="1"/>
         <v>0.19611996878135801</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="6"/>
+      <c r="K24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L24" s="11">
+        <v>0.227438</v>
+      </c>
+      <c r="M24" s="11">
+        <v>1.0888999999999999E-2</v>
+      </c>
+      <c r="N24" s="11">
+        <v>0.406302</v>
+      </c>
+      <c r="O24" s="11">
+        <v>1.3676000000000001E-2</v>
+      </c>
+      <c r="P24" s="12">
+        <v>0.23832800000000001</v>
+      </c>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12">
+        <v>0.39262599999999998</v>
+      </c>
+      <c r="S24" s="12"/>
+      <c r="T24" s="11">
+        <v>0.31547700000000001</v>
+      </c>
+      <c r="U24" s="13"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.85909999999999997</v>
       </c>
@@ -5366,8 +5609,20 @@
         <f t="shared" si="1"/>
         <v>0.24104356509799024</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.76929999999999998</v>
       </c>
@@ -5395,7 +5650,7 @@
         <v>0.1941169465285221</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.64410000000000001</v>
       </c>
@@ -5423,7 +5678,7 @@
         <v>0.1372674791533034</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.65639999999999998</v>
       </c>
@@ -5451,7 +5706,7 @@
         <v>0.14381487889273359</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.36620000000000003</v>
       </c>
@@ -5479,7 +5734,7 @@
         <v>0.22460391425908666</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.81010000000000004</v>
       </c>
@@ -5507,7 +5762,7 @@
         <v>0.27976190476190477</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.83809999999999996</v>
       </c>
@@ -5535,7 +5790,7 @@
         <v>0.13500404203718674</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.68859999999999999</v>
       </c>
@@ -8306,7 +8561,28 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="30">
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="J18:U18"/>
+    <mergeCell ref="J19:J25"/>
+    <mergeCell ref="K25:U25"/>
+    <mergeCell ref="U19:U24"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:Q20"/>
+    <mergeCell ref="R19:S20"/>
     <mergeCell ref="B113:D113"/>
     <mergeCell ref="G143:I143"/>
     <mergeCell ref="K2:L2"/>
@@ -8315,8 +8591,7 @@
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="P23:Q23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thongKe/ThongKeNguong.xlsx
+++ b/thongKe/ThongKeNguong.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Class\ky2_2122\XL tín hiệu số\Handle speech signal\thongKe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59EA35A-B1B6-4208-A740-30B37A6BEC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A14A487-6366-491E-AADC-AAD147F3DA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{4B47E6B4-FF19-4334-8229-3A9AFBCD530A}"/>
   </bookViews>
@@ -221,26 +221,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -566,19 +566,19 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -613,16 +613,16 @@
       <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="9"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="7"/>
+      <c r="Q2" s="9"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
@@ -837,19 +837,19 @@
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="8"/>
       <c r="M7" s="1">
         <f xml:space="preserve"> L3 + N3</f>
         <v>0.20277454697417271</v>
       </c>
       <c r="N7" s="1"/>
-      <c r="P7" s="6" t="s">
+      <c r="P7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" s="6"/>
+      <c r="Q7" s="8"/>
       <c r="R7" s="1">
         <f xml:space="preserve"> Q3 + S3</f>
         <v>0.23832751386476203</v>
@@ -883,19 +883,19 @@
         <f t="shared" si="1"/>
         <v>0.46153846153846156</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="6"/>
+      <c r="L8" s="8"/>
       <c r="M8" s="1">
         <f xml:space="preserve"> L4 - N4</f>
         <v>0.42662226945230602</v>
       </c>
       <c r="N8" s="1"/>
-      <c r="P8" s="6" t="s">
+      <c r="P8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="6"/>
+      <c r="Q8" s="8"/>
       <c r="R8" s="1">
         <f xml:space="preserve"> Q4 - S4</f>
         <v>0.39262565512853193</v>
@@ -4084,18 +4084,18 @@
       <c r="A100" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C100" s="7"/>
+      <c r="C100" s="9"/>
       <c r="F100" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G100" s="7" t="s">
+      <c r="G100" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
@@ -4606,10 +4606,10 @@
       <c r="S142" s="1"/>
     </row>
     <row r="143" spans="11:19" x14ac:dyDescent="0.3">
-      <c r="P143" s="6"/>
-      <c r="Q143" s="6"/>
-      <c r="R143" s="6"/>
-      <c r="S143" s="6"/>
+      <c r="P143" s="8"/>
+      <c r="Q143" s="8"/>
+      <c r="R143" s="8"/>
+      <c r="S143" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4635,7 +4635,7 @@
   <dimension ref="A1:U152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4644,18 +4644,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:18" ht="28" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -4682,14 +4682,14 @@
       <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="O2" s="7" t="s">
+      <c r="L2" s="9"/>
+      <c r="O2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="7"/>
+      <c r="P2" s="9"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -4886,18 +4886,18 @@
         <f t="shared" si="1"/>
         <v>0.55172413793103448</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="8"/>
       <c r="M7">
         <f xml:space="preserve"> L3 + N3</f>
         <v>0.18728310340292853</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="6"/>
+      <c r="P7" s="8"/>
       <c r="Q7">
         <f xml:space="preserve"> P3 + R3</f>
         <v>0.22896240555263198</v>
@@ -4930,18 +4930,18 @@
         <f t="shared" si="1"/>
         <v>0.42723004694835681</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="6"/>
+      <c r="L8" s="8"/>
       <c r="M8">
         <f xml:space="preserve"> L4 - N4</f>
         <v>0.4700135291652216</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="6"/>
+      <c r="P8" s="8"/>
       <c r="Q8">
         <f xml:space="preserve"> P4 - R4</f>
         <v>0.45446105561227063</v>
@@ -5237,18 +5237,18 @@
         <f t="shared" si="1"/>
         <v>0.53012048192771088</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
@@ -5277,32 +5277,32 @@
         <f t="shared" si="1"/>
         <v>9.5480074886333255E-2</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="9" t="s">
+      <c r="J19" s="8"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="M19" s="9" t="s">
+      <c r="M19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N19" s="9" t="s">
+      <c r="N19" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="O19" s="9" t="s">
+      <c r="O19" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="P19" s="9" t="s">
+      <c r="P19" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9" t="s">
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9" t="s">
+      <c r="S19" s="12"/>
+      <c r="T19" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="U19" s="13"/>
+      <c r="U19" s="11"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
@@ -5331,18 +5331,18 @@
         <f t="shared" si="1"/>
         <v>9.2197204968944096E-2</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="13"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="11"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
@@ -5371,41 +5371,41 @@
         <f t="shared" si="1"/>
         <v>8.3178360101437018E-2</v>
       </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="10" t="s">
+      <c r="J21" s="8"/>
+      <c r="K21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="7">
         <f xml:space="preserve"> L3</f>
         <v>0.17565628290405769</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M21" s="7">
         <f xml:space="preserve"> N3</f>
         <v>1.1626820498870847E-2</v>
       </c>
-      <c r="N21" s="11">
+      <c r="N21" s="7">
         <f xml:space="preserve"> L4</f>
         <v>0.47793792664490953</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O21" s="7">
         <f xml:space="preserve"> N4</f>
         <v>7.9243974796879262E-3</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="10">
         <f xml:space="preserve"> M7</f>
         <v>0.18728310340292853</v>
       </c>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12">
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10">
         <f xml:space="preserve"> M8</f>
         <v>0.4700135291652216</v>
       </c>
-      <c r="S21" s="12"/>
-      <c r="T21" s="11">
+      <c r="S21" s="10"/>
+      <c r="T21" s="7">
         <f xml:space="preserve"> M9</f>
         <v>0.32864831628407509</v>
       </c>
-      <c r="U21" s="13"/>
+      <c r="U21" s="11"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
@@ -5434,41 +5434,41 @@
         <f t="shared" si="1"/>
         <v>0.16906196878380467</v>
       </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="10" t="s">
+      <c r="J22" s="8"/>
+      <c r="K22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="7">
         <f xml:space="preserve"> P3</f>
         <v>0.21832534321663735</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="7">
         <f xml:space="preserve"> R3</f>
         <v>1.0637062335994625E-2</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="7">
         <f xml:space="preserve"> P4</f>
         <v>0.45950965136094474</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O22" s="7">
         <f xml:space="preserve"> R4</f>
         <v>5.0485957486741265E-3</v>
       </c>
-      <c r="P22" s="12">
+      <c r="P22" s="10">
         <f xml:space="preserve"> Q7</f>
         <v>0.22896240555263198</v>
       </c>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12">
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10">
         <f xml:space="preserve"> Q8</f>
         <v>0.45446105561227063</v>
       </c>
-      <c r="S22" s="12"/>
-      <c r="T22" s="11">
+      <c r="S22" s="10"/>
+      <c r="T22" s="7">
         <f xml:space="preserve"> Q9</f>
         <v>0.3417117305824513</v>
       </c>
-      <c r="U22" s="13"/>
+      <c r="U22" s="11"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23">
@@ -5497,34 +5497,34 @@
         <f t="shared" si="1"/>
         <v>0.11691348402182385</v>
       </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="10" t="s">
+      <c r="J23" s="8"/>
+      <c r="K23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="7">
         <v>0.18740999999999999</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M23" s="7">
         <v>1.5365E-2</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N23" s="7">
         <v>0.44187100000000001</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O23" s="7">
         <v>1.5249E-2</v>
       </c>
-      <c r="P23" s="12">
+      <c r="P23" s="10">
         <v>0.20277500000000001</v>
       </c>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12">
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10">
         <v>0.426622</v>
       </c>
-      <c r="S23" s="12"/>
-      <c r="T23" s="11">
+      <c r="S23" s="10"/>
+      <c r="T23" s="7">
         <v>0.31469799999999998</v>
       </c>
-      <c r="U23" s="13"/>
+      <c r="U23" s="11"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -5553,34 +5553,34 @@
         <f t="shared" si="1"/>
         <v>0.19611996878135801</v>
       </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="10" t="s">
+      <c r="J24" s="8"/>
+      <c r="K24" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="7">
         <v>0.227438</v>
       </c>
-      <c r="M24" s="11">
+      <c r="M24" s="7">
         <v>1.0888999999999999E-2</v>
       </c>
-      <c r="N24" s="11">
+      <c r="N24" s="7">
         <v>0.406302</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O24" s="7">
         <v>1.3676000000000001E-2</v>
       </c>
-      <c r="P24" s="12">
+      <c r="P24" s="10">
         <v>0.23832800000000001</v>
       </c>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12">
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10">
         <v>0.39262599999999998</v>
       </c>
-      <c r="S24" s="12"/>
-      <c r="T24" s="11">
+      <c r="S24" s="10"/>
+      <c r="T24" s="7">
         <v>0.31547700000000001</v>
       </c>
-      <c r="U24" s="13"/>
+      <c r="U24" s="11"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25">
@@ -5609,18 +5609,18 @@
         <f t="shared" si="1"/>
         <v>0.24104356509799024</v>
       </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26">
@@ -8036,11 +8036,11 @@
       <c r="A113" t="s">
         <v>12</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
       <c r="F113">
         <v>4.9299999999999997E-2</v>
       </c>
@@ -8464,11 +8464,11 @@
       <c r="F143" t="s">
         <v>11</v>
       </c>
-      <c r="G143" s="6" t="s">
+      <c r="G143" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
@@ -8562,6 +8562,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="G143:I143"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="P24:Q24"/>
     <mergeCell ref="R24:S24"/>
@@ -8574,24 +8588,10 @@
     <mergeCell ref="R21:S21"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="R22:S22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
     <mergeCell ref="N19:N20"/>
     <mergeCell ref="O19:O20"/>
     <mergeCell ref="P19:Q20"/>
     <mergeCell ref="R19:S20"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="G143:I143"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="P23:Q23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
